--- a/文章发布记录.xlsx
+++ b/文章发布记录.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="pm" day="1579576934" val="694"/>
+      <pm:revision xmlns:pm="pm" day="1584408210" val="694"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="146">
   <si>
     <t>时间</t>
   </si>
@@ -337,6 +337,137 @@
   </si>
   <si>
     <t>http://health.people.com.cn/n1/2020/0121/c14739-31558023.html</t>
+  </si>
+  <si>
+    <t>2020.3.12</t>
+  </si>
+  <si>
+    <t>老年群体如何理性战“疫”</t>
+  </si>
+  <si>
+    <t>https://www.sohu.com/a/374065938_99897023?spm=smpc.author.fd-d.10.1583997771170cvgNCzV</t>
+  </si>
+  <si>
+    <t>增强抵抗力 老年人吃动指南来了</t>
+  </si>
+  <si>
+    <r>
+      <t>http://</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+      </rPr>
+      <t>health</t>
+    </r>
+    <r>
+      <t>.people.com.cn/n1/2020/0228/c14739-31608953.html</t>
+    </r>
+  </si>
+  <si>
+    <t>2020.3.13</t>
+  </si>
+  <si>
+    <t>防“疫”别只顾外防护 提高免疫力更重要</t>
+  </si>
+  <si>
+    <t>http://www.keai99.com/thread-472738-1-1.html</t>
+  </si>
+  <si>
+    <t>惊蛰顺肝气，养生防疫情</t>
+  </si>
+  <si>
+    <t>http://www.keai99.com/thread-472434-1-1.html</t>
+  </si>
+  <si>
+    <t>2020.3.16</t>
+  </si>
+  <si>
+    <t>抗击病毒要祛湿化痰</t>
+  </si>
+  <si>
+    <t>http://www.renaiyanglao.com/html/news/jkzs/2020/0316/444.html</t>
+  </si>
+  <si>
+    <t>http://lyyhyl.org.cn/Health/ysbj/4918.html</t>
+  </si>
+  <si>
+    <t>宅家抗疫，常喝六药茶</t>
+  </si>
+  <si>
+    <t>http://www.renaiyanglao.com/html/news/jkzs/2020/0316/443.html</t>
+  </si>
+  <si>
+    <t>http://www.lyyhyl.com/Health/ysbj/6307.html</t>
+  </si>
+  <si>
+    <t>http://lyyhyl.cn/Health/ysbj/6057.html</t>
+  </si>
+  <si>
+    <t>http://lyyhyl.net/Health/ysbj/5300.html</t>
+  </si>
+  <si>
+    <t>http://www.lyyhyl.org/Health/ysbj/4695.html</t>
+  </si>
+  <si>
+    <t>http://lyyhyl.net.cn/Health/ysbj/5271.html</t>
+  </si>
+  <si>
+    <t>http://lyyhyl.com.cn/Health/ysbj/5656.html</t>
+  </si>
+  <si>
+    <t>http://www.aixingongyu.com/Health/ysbj/5140.html</t>
+  </si>
+  <si>
+    <t>http://www.lianyiyanglao.com/c4168.html</t>
+  </si>
+  <si>
+    <t>http://fengye.lianyiyanglao.com/c3212.html</t>
+  </si>
+  <si>
+    <t>http://luquan.lianyiyanglao.com/c2447.html</t>
+  </si>
+  <si>
+    <t>http://yinling.lianyiyanglao.com/c2641.html</t>
+  </si>
+  <si>
+    <t>http://qiaoxi.lianyiyanglao.com/c2621.html</t>
+  </si>
+  <si>
+    <t>http://jialin.lianyiyanglao.com/xinwendongtai/2020/0316/1001.html</t>
+  </si>
+  <si>
+    <t>http://www.xyh-sjz.com/show.asp?id=1841</t>
+  </si>
+  <si>
+    <t>http://www.fylngy.com/newshow.asp?id=2829&amp;nClass=5&amp;mnid=70289&amp;classname=养生保健&amp;uppage=zhishi.asp</t>
+  </si>
+  <si>
+    <t>2020.3.17</t>
+  </si>
+  <si>
+    <t>疫情下如何调节睡眠 哪些食物可以帮助睡眠</t>
+  </si>
+  <si>
+    <t>http://www.renaiyanglao.com/html/news/jkzs/2020//445.html</t>
+  </si>
+  <si>
+    <t>http://www.renaiyanglao.com/html/news/jkzs/2020//446.html</t>
+  </si>
+  <si>
+    <t>http://www.renaiyanglao.com/html/news/jkzs/2020//447.html</t>
+  </si>
+  <si>
+    <t>http://www.renaiyanglao.com/html/news/jkzs/2020/0316/448.html</t>
+  </si>
+  <si>
+    <t>http://www.renaiyanglao.com/html/news/jkzs/2020/0316/449.html</t>
+  </si>
+  <si>
+    <t>http://www.renaiyanglao.com/html/news/jkzs/2020/0316/450.html</t>
+  </si>
+  <si>
+    <t>http://www.renaiyanglao.com/html/news/jkzs/2020//44.html</t>
   </si>
 </sst>
 </file>
@@ -358,7 +489,7 @@
     <numFmt numFmtId="167" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="9" formatCode="0%"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -507,6 +638,12 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
       <name val="Tahoma"/>
       <family val="2"/>
       <color rgb="FF444444"/>
@@ -1607,23 +1744,19 @@
       <alignment/>
       <protection locked="1" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1" hidden="0"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection locked="1" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection locked="1" hidden="0"/>
     </xf>
@@ -1632,6 +1765,10 @@
       <protection locked="1" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection locked="1" hidden="0"/>
     </xf>
@@ -1919,17 +2056,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.50"/>
   <cols>
     <col min="1" max="1" width="23.745455" customWidth="1"/>
     <col min="2" max="2" width="53.872727" customWidth="1"/>
-    <col min="3" max="3" width="46.500000" customWidth="1"/>
+    <col min="3" max="3" width="65.863636" customWidth="1"/>
+    <col min="4" max="4" width="44.136364" customWidth="1"/>
+    <col min="5" max="5" width="40.181818" customWidth="1"/>
+    <col min="6" max="7" width="29.545455" customWidth="1"/>
+    <col min="8" max="8" width="39.909091" customWidth="1"/>
+    <col min="9" max="9" width="42.909091" customWidth="1"/>
+    <col min="10" max="10" width="52.590909" customWidth="1"/>
+    <col min="11" max="12" width="42.500000" customWidth="1"/>
+    <col min="13" max="13" width="38.136364" customWidth="1"/>
+    <col min="14" max="14" width="47.000000" customWidth="1"/>
+    <col min="15" max="15" width="35.409091" customWidth="1"/>
+    <col min="16" max="16" width="65.681818" customWidth="1"/>
+    <col min="17" max="17" width="51.363636" customWidth="1"/>
+    <col min="18" max="18" width="52.318182" customWidth="1"/>
+    <col min="19" max="19" width="71.545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2417,14 +2568,597 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="50" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="H51" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="I51" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="J51" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="K51" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="L51" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="M51" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="N51" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="O51" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="P51" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q51" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="R51" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="S51" s="50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" s="50" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/文章发布记录.xlsx
+++ b/文章发布记录.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="pm" day="1584408210" val="694"/>
+      <pm:revision xmlns:pm="pm" day="1584610927" val="694"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="162">
   <si>
     <t>时间</t>
   </si>
@@ -389,54 +389,72 @@
     <t>http://www.renaiyanglao.com/html/news/jkzs/2020/0316/444.html</t>
   </si>
   <si>
+    <t>http://www.lianyiyanglao.com/c4171.html</t>
+  </si>
+  <si>
+    <t>http://fengye.lianyiyanglao.com/c3214.html</t>
+  </si>
+  <si>
+    <t>http://luquan.lianyiyanglao.com/c2450.html</t>
+  </si>
+  <si>
+    <t>http://yinling.lianyiyanglao.com/c2643.html</t>
+  </si>
+  <si>
+    <t>http://qiaoxi.lianyiyanglao.com/c2623.html</t>
+  </si>
+  <si>
+    <t>http://jialin.lianyiyanglao.com/xinwendongtai/2020/0318/1003.html</t>
+  </si>
+  <si>
+    <t>宅家抗疫，常喝六药茶</t>
+  </si>
+  <si>
+    <t>http://www.renaiyanglao.com/html/news/jkzs/2020/0316/443.html</t>
+  </si>
+  <si>
+    <t>http://www.lyyhyl.com/Health/ysbj/6307.html</t>
+  </si>
+  <si>
+    <t>http://lyyhyl.cn/Health/ysbj/6057.html</t>
+  </si>
+  <si>
+    <t>http://lyyhyl.net/Health/ysbj/5300.html</t>
+  </si>
+  <si>
+    <t>http://www.lyyhyl.org/Health/ysbj/4695.html</t>
+  </si>
+  <si>
+    <t>http://lyyhyl.net.cn/Health/ysbj/5271.html</t>
+  </si>
+  <si>
+    <t>http://lyyhyl.com.cn/Health/ysbj/5656.html</t>
+  </si>
+  <si>
+    <t>http://www.aixingongyu.com/Health/ysbj/5140.html</t>
+  </si>
+  <si>
+    <t>http://www.lianyiyanglao.com/c4168.html</t>
+  </si>
+  <si>
+    <t>http://fengye.lianyiyanglao.com/c3212.html</t>
+  </si>
+  <si>
+    <t>http://luquan.lianyiyanglao.com/c2447.html</t>
+  </si>
+  <si>
+    <t>http://yinling.lianyiyanglao.com/c2641.html</t>
+  </si>
+  <si>
+    <t>http://qiaoxi.lianyiyanglao.com/c2621.html</t>
+  </si>
+  <si>
+    <t>http://jialin.lianyiyanglao.com/xinwendongtai/2020/0316/1001.html</t>
+  </si>
+  <si>
     <t>http://lyyhyl.org.cn/Health/ysbj/4918.html</t>
   </si>
   <si>
-    <t>宅家抗疫，常喝六药茶</t>
-  </si>
-  <si>
-    <t>http://www.renaiyanglao.com/html/news/jkzs/2020/0316/443.html</t>
-  </si>
-  <si>
-    <t>http://www.lyyhyl.com/Health/ysbj/6307.html</t>
-  </si>
-  <si>
-    <t>http://lyyhyl.cn/Health/ysbj/6057.html</t>
-  </si>
-  <si>
-    <t>http://lyyhyl.net/Health/ysbj/5300.html</t>
-  </si>
-  <si>
-    <t>http://www.lyyhyl.org/Health/ysbj/4695.html</t>
-  </si>
-  <si>
-    <t>http://lyyhyl.net.cn/Health/ysbj/5271.html</t>
-  </si>
-  <si>
-    <t>http://lyyhyl.com.cn/Health/ysbj/5656.html</t>
-  </si>
-  <si>
-    <t>http://www.aixingongyu.com/Health/ysbj/5140.html</t>
-  </si>
-  <si>
-    <t>http://www.lianyiyanglao.com/c4168.html</t>
-  </si>
-  <si>
-    <t>http://fengye.lianyiyanglao.com/c3212.html</t>
-  </si>
-  <si>
-    <t>http://luquan.lianyiyanglao.com/c2447.html</t>
-  </si>
-  <si>
-    <t>http://yinling.lianyiyanglao.com/c2641.html</t>
-  </si>
-  <si>
-    <t>http://qiaoxi.lianyiyanglao.com/c2621.html</t>
-  </si>
-  <si>
-    <t>http://jialin.lianyiyanglao.com/xinwendongtai/2020/0316/1001.html</t>
-  </si>
-  <si>
     <t>http://www.xyh-sjz.com/show.asp?id=1841</t>
   </si>
   <si>
@@ -455,7 +473,37 @@
     <t>http://www.renaiyanglao.com/html/news/jkzs/2020//446.html</t>
   </si>
   <si>
-    <t>http://www.renaiyanglao.com/html/news/jkzs/2020//447.html</t>
+    <t>2020.3.19</t>
+  </si>
+  <si>
+    <t>科学防疫 老年人应该避开五大误区</t>
+  </si>
+  <si>
+    <t>http://www.renaiyanglao.com/html/news/jkzs/2020/0319/447.html</t>
+  </si>
+  <si>
+    <t>http://www.lianyiyanglao.com/c4172.html</t>
+  </si>
+  <si>
+    <t>http://jialin.lianyiyanglao.com/xinwendongtai/2020/0319/1004.html</t>
+  </si>
+  <si>
+    <t>http://www.xyh-sjz.com/show.asp?id=1844</t>
+  </si>
+  <si>
+    <t>http://www.fylngy.com/newshow.asp?id=2832&amp;nClass=1&amp;mnid=70282&amp;classname=公寓新闻&amp;uppage=news.asp</t>
+  </si>
+  <si>
+    <t>http://fengye.lianyiyanglao.com/c3215.html</t>
+  </si>
+  <si>
+    <t>http://luquan.lianyiyanglao.com/c2451.html</t>
+  </si>
+  <si>
+    <t>http://yinling.lianyiyanglao.com/c2644.html</t>
+  </si>
+  <si>
+    <t>http://qiaoxi.lianyiyanglao.com/c2624.html</t>
   </si>
   <si>
     <t>http://www.renaiyanglao.com/html/news/jkzs/2020/0316/448.html</t>
@@ -2058,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="I46" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.50"/>
@@ -2069,7 +2117,8 @@
     <col min="3" max="3" width="65.863636" customWidth="1"/>
     <col min="4" max="4" width="44.136364" customWidth="1"/>
     <col min="5" max="5" width="40.181818" customWidth="1"/>
-    <col min="6" max="7" width="29.545455" customWidth="1"/>
+    <col min="6" max="6" width="29.545455" customWidth="1"/>
+    <col min="7" max="7" width="38.545455" customWidth="1"/>
     <col min="8" max="8" width="39.909091" customWidth="1"/>
     <col min="9" max="9" width="42.909091" customWidth="1"/>
     <col min="10" max="10" width="52.590909" customWidth="1"/>
@@ -2622,7 +2671,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:9">
       <c r="A50" s="50" t="s">
         <v>116</v>
       </c>
@@ -2634,6 +2683,21 @@
       </c>
       <c r="D50" s="50" t="s">
         <v>119</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -2641,524 +2705,555 @@
         <v>116</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F51" s="50" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G51" s="50" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H51" s="50" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I51" s="50" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J51" s="50" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K51" s="50" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L51" s="50" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M51" s="50" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="N51" s="50" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="O51" s="50" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="P51" s="50" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q51" s="50" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="R51" s="50" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="S51" s="50" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>138</v>
+      <c r="A52" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>144</v>
       </c>
       <c r="C52" s="50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="0"/>
       <c r="C53" s="50" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>148</v>
+      </c>
       <c r="C54" s="50" t="s">
-        <v>141</v>
+        <v>149</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="50" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="50" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="50" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="3:3">
       <c r="C115" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="3:3">
       <c r="C126" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129" spans="3:3">
       <c r="C129" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="3:3">
       <c r="C130" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="3:3">
       <c r="C131" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132" spans="3:3">
       <c r="C132" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="3:3">
       <c r="C133" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="3:3">
       <c r="C138" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="3:3">
       <c r="C143" s="50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/文章发布记录.xlsx
+++ b/文章发布记录.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="pm" day="1584610927" val="694"/>
+      <pm:revision xmlns:pm="pm" day="1584759642" val="694"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="179">
   <si>
     <t>时间</t>
   </si>
@@ -506,7 +506,58 @@
     <t>http://qiaoxi.lianyiyanglao.com/c2624.html</t>
   </si>
   <si>
+    <t>2020.3.21</t>
+  </si>
+  <si>
+    <t>疫情结束后，这5种生活方式，最健康！最有用！</t>
+  </si>
+  <si>
     <t>http://www.renaiyanglao.com/html/news/jkzs/2020/0316/448.html</t>
+  </si>
+  <si>
+    <t>http://www.lyyhyl.com/Health/ysbj/6312.html</t>
+  </si>
+  <si>
+    <t>http://lyyhyl.cn/Health/ysbj/6060.html</t>
+  </si>
+  <si>
+    <t>http://lyyhyl.net/Health/ysbj/5303.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.lyyhyl.org/Health/ysbj/4698.html</t>
+  </si>
+  <si>
+    <t>http://lyyhyl.net.cn/Health/ysbj/5275.html</t>
+  </si>
+  <si>
+    <t>http://lyyhyl.com.cn/Health/ysbj/5659.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.aixingongyu.com/Health/ysbj/5143.html</t>
+  </si>
+  <si>
+    <t>http://www.lianyiyanglao.com/c4175.html</t>
+  </si>
+  <si>
+    <t>http://fengye.lianyiyanglao.com/c3216.html</t>
+  </si>
+  <si>
+    <t>http://luquan.lianyiyanglao.com/c2452.html</t>
+  </si>
+  <si>
+    <t>http://yinling.lianyiyanglao.com/c2645.html</t>
+  </si>
+  <si>
+    <t>http://qiaoxi.lianyiyanglao.com/c2625.html</t>
+  </si>
+  <si>
+    <t>http://jialin.lianyiyanglao.com/xinwendongtai/2020/0321/1005.html</t>
+  </si>
+  <si>
+    <t>http://lyyhyl.org.cn/Health/ysbj/4923.html</t>
+  </si>
+  <si>
+    <t>http://www.xyh-sjz.com/show.asp?id=1845</t>
   </si>
   <si>
     <t>http://www.renaiyanglao.com/html/news/jkzs/2020/0316/449.html</t>
@@ -2106,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="I46" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="R37" workbookViewId="0">
+      <selection activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.50"/>
@@ -2117,8 +2168,8 @@
     <col min="3" max="3" width="65.863636" customWidth="1"/>
     <col min="4" max="4" width="44.136364" customWidth="1"/>
     <col min="5" max="5" width="40.181818" customWidth="1"/>
-    <col min="6" max="6" width="29.545455" customWidth="1"/>
-    <col min="7" max="7" width="38.545455" customWidth="1"/>
+    <col min="6" max="6" width="42.772727" customWidth="1"/>
+    <col min="7" max="7" width="44.272727" customWidth="1"/>
     <col min="8" max="8" width="39.909091" customWidth="1"/>
     <col min="9" max="9" width="42.909091" customWidth="1"/>
     <col min="10" max="10" width="52.590909" customWidth="1"/>
@@ -2684,19 +2735,19 @@
       <c r="D50" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="H50" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="I50" s="0" t="s">
+      <c r="I50" s="50" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2771,489 +2822,544 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="0"/>
+      <c r="A53" s="50"/>
       <c r="C53" s="50" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:15">
+      <c r="A54" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="50" t="s">
         <v>148</v>
       </c>
       <c r="C54" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="H54" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="I54" s="0" t="s">
+      <c r="I54" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="J54" s="0" t="s">
+      <c r="J54" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="K54" s="0" t="s">
+      <c r="K54" s="50" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="55" spans="3:3">
+      <c r="O54" s="0"/>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>159</v>
+      </c>
       <c r="C55" s="50" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q55" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="R55" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="S55" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="50" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="50" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="3:3">
       <c r="C115" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="3:3">
       <c r="C126" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="129" spans="3:3">
       <c r="C129" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" spans="3:3">
       <c r="C130" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="3:3">
       <c r="C131" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132" spans="3:3">
       <c r="C132" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="3:3">
       <c r="C133" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138" spans="3:3">
       <c r="C138" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="143" spans="3:3">
       <c r="C143" s="50" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/文章发布记录.xlsx
+++ b/文章发布记录.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="pm" day="1584759642" val="694"/>
+      <pm:revision xmlns:pm="pm" day="1585046256" val="694"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="214">
   <si>
     <t>时间</t>
   </si>
@@ -560,10 +560,115 @@
     <t>http://www.xyh-sjz.com/show.asp?id=1845</t>
   </si>
   <si>
+    <t>2020.3.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 失眠烦躁？老年人失眠该这么做 </t>
+  </si>
+  <si>
     <t>http://www.renaiyanglao.com/html/news/jkzs/2020/0316/449.html</t>
   </si>
   <si>
-    <t>http://www.renaiyanglao.com/html/news/jkzs/2020/0316/450.html</t>
+    <t>http://101.36.174.253:88/Health/ysbj/6313.html</t>
+  </si>
+  <si>
+    <t>http://101.36.174.253:85/Health/ysbj/6061.html</t>
+  </si>
+  <si>
+    <t>http://101.36.174.253:83/Health/ysbj/5304.html</t>
+  </si>
+  <si>
+    <t>http://101.36.174.253:82/Health/ysbj/4688.html</t>
+  </si>
+  <si>
+    <t>http://101.36.174.253:89/Health/ysbj/5276.html</t>
+  </si>
+  <si>
+    <t>http://www.aixingongyu.com/Health/ysbj/5144.html</t>
+  </si>
+  <si>
+    <t>http://www.lianyiyanglao.com/c4176.html</t>
+  </si>
+  <si>
+    <t>http://fengye.lianyiyanglao.com/c3217.htmlhttp://luquan.lianyiyanglao.com/c2453.html</t>
+  </si>
+  <si>
+    <t>http://yinling.lianyiyanglao.com/c2646.html</t>
+  </si>
+  <si>
+    <t>http://qiaoxi.lianyiyanglao.com/c2626.html</t>
+  </si>
+  <si>
+    <t>http://jialin.lianyiyanglao.com/xinwendongtai/2020/0323/1006.html</t>
+  </si>
+  <si>
+    <t>http://101.36.174.253:81/Health/ysbj/4924.html</t>
+  </si>
+  <si>
+    <t>http://www.xyh-sjz.com/show.asp?id=1846</t>
+  </si>
+  <si>
+    <t>http://www.fylngy.com/newshow.asp?id=2833&amp;nClass=1&amp;mnid=70282&amp;classname=公寓新闻&amp;uppage=news.asp</t>
+  </si>
+  <si>
+    <t>2020.3.24</t>
+  </si>
+  <si>
+    <t>居家抗“疫”，老年人如何合理用药？</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://101.36.174.253:88/Health/ysbj/6314.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://101.36.174.253:85/Health/ysbj/6062.html</t>
+  </si>
+  <si>
+    <t>http://101.36.174.253:83/Health/ysbj/5305.html</t>
+  </si>
+  <si>
+    <t>http://101.36.174.253:82/Health/ysbj/4689.html</t>
+  </si>
+  <si>
+    <t>http://101.36.174.253:89/Health/ysbj/5277.html</t>
+  </si>
+  <si>
+    <t>http://101.36.174.253:87/Health/ysbj/5661.html</t>
+  </si>
+  <si>
+    <t>http://101.36.174.253:84/Health/ysbj/5145.html</t>
+  </si>
+  <si>
+    <t>http://www.lianyiyanglao.com/c4178.html</t>
+  </si>
+  <si>
+    <t>http://fengye.lianyiyanglao.com/c3218.html</t>
+  </si>
+  <si>
+    <t>http://luquan.lianyiyanglao.com/c2454.html</t>
+  </si>
+  <si>
+    <t>http://yinling.lianyiyanglao.com/c2647.html</t>
+  </si>
+  <si>
+    <t>http://qiaoxi.lianyiyanglao.com/c2627.html</t>
+  </si>
+  <si>
+    <t>http://jialin.lianyiyanglao.com/xinwendongtai/2020/0324/1007.html?1585045607</t>
+  </si>
+  <si>
+    <t>http://101.36.174.253:81/Health/ysbj/4925.html</t>
+  </si>
+  <si>
+    <t>http://www.xyh-sjz.com/show.asp?id=1847</t>
+  </si>
+  <si>
+    <t>http://www.fylngy.com/newshow.asp?id=2834&amp;nClass=1&amp;mnid=70282&amp;classname=公寓新闻&amp;uppage=news.asp</t>
+  </si>
+  <si>
+    <t>人民康养访谈：疫情下 养老发展的中国模式</t>
+  </si>
+  <si>
+    <t>http://www.renaiyanglao.com/html/news/hynews/2020/0324/450.html</t>
   </si>
   <si>
     <t>http://www.renaiyanglao.com/html/news/jkzs/2020//44.html</t>
@@ -588,7 +693,7 @@
     <numFmt numFmtId="167" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="9" formatCode="0%"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -787,6 +892,16 @@
       <sz val="11"/>
       <u val="single"/>
     </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <sz val="14"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -1484,7 +1599,7 @@
       <protection locked="1" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="1" hidden="0"/>
     </xf>
@@ -1869,6 +1984,14 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
@@ -2157,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="R37" workbookViewId="0">
-      <selection activeCell="S55" sqref="S55"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.50"/>
@@ -2174,10 +2297,10 @@
     <col min="9" max="9" width="42.909091" customWidth="1"/>
     <col min="10" max="10" width="52.590909" customWidth="1"/>
     <col min="11" max="12" width="42.500000" customWidth="1"/>
-    <col min="13" max="13" width="38.136364" customWidth="1"/>
+    <col min="13" max="13" width="48.363636" customWidth="1"/>
     <col min="14" max="14" width="47.000000" customWidth="1"/>
     <col min="15" max="15" width="35.409091" customWidth="1"/>
-    <col min="16" max="16" width="65.681818" customWidth="1"/>
+    <col min="16" max="16" width="76.045455" customWidth="1"/>
     <col min="17" max="17" width="51.363636" customWidth="1"/>
     <col min="18" max="18" width="52.318182" customWidth="1"/>
     <col min="19" max="19" width="71.545455" customWidth="1"/>
@@ -2861,505 +2984,613 @@
       <c r="K54" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="O54" s="0"/>
+      <c r="O54" s="50"/>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="50" t="s">
         <v>159</v>
       </c>
       <c r="C55" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="H55" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="I55" s="0" t="s">
+      <c r="I55" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="J55" s="0" t="s">
+      <c r="J55" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="K55" s="0" t="s">
+      <c r="K55" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="L55" s="0" t="s">
+      <c r="L55" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="M55" s="0" t="s">
+      <c r="M55" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="N55" s="0" t="s">
+      <c r="N55" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="O55" s="0" t="s">
+      <c r="O55" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="P55" s="0" t="s">
+      <c r="P55" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="Q55" s="0" t="s">
+      <c r="Q55" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="R55" s="0" t="s">
+      <c r="R55" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="S55" s="0" t="s">
+      <c r="S55" s="50" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="1:19">
+      <c r="A56" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>177</v>
+      </c>
       <c r="C56" s="50" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57" s="50" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3">
+        <v>178</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="G56" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="H56" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="J56" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="K56" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="L56" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="N56" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="O56" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="P56" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q56" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="R56" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="S56" s="50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="50"/>
+      <c r="D57" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="I57" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="P57" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q57" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="R57" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="S57" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>211</v>
+      </c>
       <c r="C58" s="50" t="s">
-        <v>178</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="K58" s="0"/>
+      <c r="N58" s="0"/>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="3:3">
       <c r="C115" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124" spans="3:3">
       <c r="C124" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="126" spans="3:3">
       <c r="C126" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="129" spans="3:3">
       <c r="C129" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="130" spans="3:3">
       <c r="C130" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="131" spans="3:3">
       <c r="C131" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="132" spans="3:3">
       <c r="C132" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="133" spans="3:3">
       <c r="C133" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="138" spans="3:3">
       <c r="C138" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="143" spans="3:3">
       <c r="C143" s="50" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
